--- a/stage-assets/list2.xlsx
+++ b/stage-assets/list2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="442">
   <si>
     <t>Document ID</t>
   </si>
@@ -1105,6 +1105,246 @@
   </si>
   <si>
     <t>LO</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/Module5DiscussionBoard.pdf</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/Module4DiscussionBoard.pdf</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/Module%203%20Paper.pdf</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/Medici%20Course%20Builder%20Lesson%20Plan.pdf</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/DiscussionBoardPosts.pdf</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/Assignment%201.pdf</t>
+  </si>
+  <si>
+    <t>Module5DiscussionBoard</t>
+  </si>
+  <si>
+    <t>Module4DiscussionBoard</t>
+  </si>
+  <si>
+    <t>Module%203%20Paper</t>
+  </si>
+  <si>
+    <t>Medici%20Course%20Builder%20Lesson%20Plan</t>
+  </si>
+  <si>
+    <t>DiscussionBoardPosts</t>
+  </si>
+  <si>
+    <t>Assignment%201</t>
+  </si>
+  <si>
+    <t>edb988eba1b0493ea7269aaf019a2ed5</t>
+  </si>
+  <si>
+    <t>26e816dca10a4d74ae748a599b9abacf</t>
+  </si>
+  <si>
+    <t>9e86997560fb4a16be70c2799acf5cbd</t>
+  </si>
+  <si>
+    <t>cc28dfcbd07d4143b31c8ffd9b84c99b</t>
+  </si>
+  <si>
+    <t>58022df1a32e43c2a206b992bfe17199</t>
+  </si>
+  <si>
+    <t>e4a0520bdb9e4f098537b1f402b95fd3</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/DowdSATActivator.pdf</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/DowdCotton_ATProductNarrative.pdf</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/Dowd_INST968-ReflectionAssignment.pdf</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/Dowd_ATResearchPaper.pdf</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview6_BrailleNote.pdf</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview5_PillStation.pdf</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview4_MedSmart.pdf</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview3_MedCenter.pdf</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview2_PillReminder.pdf</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview1_WYNN.pdf</t>
+  </si>
+  <si>
+    <t>DowdSATActivator</t>
+  </si>
+  <si>
+    <t>DowdCotton_ATProductNarrative</t>
+  </si>
+  <si>
+    <t>Dowd_INST968-ReflectionAssignment</t>
+  </si>
+  <si>
+    <t>Dowd_ATResearchPaper</t>
+  </si>
+  <si>
+    <t>ATReview6_BrailleNote</t>
+  </si>
+  <si>
+    <t>ATReview5_PillStation</t>
+  </si>
+  <si>
+    <t>ATReview4_MedSmart</t>
+  </si>
+  <si>
+    <t>ATReview3_MedCenter</t>
+  </si>
+  <si>
+    <t>ATReview2_PillReminder</t>
+  </si>
+  <si>
+    <t>ATReview1_WYNN</t>
+  </si>
+  <si>
+    <t>a138e6b50a46428488063206bfad179e</t>
+  </si>
+  <si>
+    <t>94c63c1e5abf40639605f9db7503d6dc</t>
+  </si>
+  <si>
+    <t>e9a9864e75414e348e5d73034cfd12d4</t>
+  </si>
+  <si>
+    <t>1fa0baa2a62e4e909b6ba50e1e914560</t>
+  </si>
+  <si>
+    <t>8270a78ba2974a1baf2a77155e48e5ed</t>
+  </si>
+  <si>
+    <t>7d43e14ba3e543bc838b6168d6dddadc</t>
+  </si>
+  <si>
+    <t>4dc45830b1c2498eb17b15339630ccc1</t>
+  </si>
+  <si>
+    <t>a42eaeb2ec29493c96ff98537982dd06</t>
+  </si>
+  <si>
+    <t>0f87791eafd442fbac02f6afb064bbc6</t>
+  </si>
+  <si>
+    <t>cd794d26446a4fd1827b0aa399bc6fd8</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/Module5DiscussionBoard/assets/</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/Module4DiscussionBoard/assets/</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/Module%203%20Paper/assets/</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/Medici%20Course%20Builder%20Lesson%20Plan/assets/</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/DiscussionBoardPosts/assets/</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/Assignment%201/assets/</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/DowdSATActivator/assets/</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/DowdCotton_ATProductNarrative/assets/</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/Dowd_INST968-ReflectionAssignment/assets/</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/Dowd_ATResearchPaper/assets/</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview6_BrailleNote/assets/</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview5_PillStation/assets/</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview4_MedSmart/assets/</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview3_MedCenter/assets/</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview2_PillReminder/assets/</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview1_WYNN/assets/</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/Module5DiscussionBoard.html</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/Module4DiscussionBoard.html</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/DiscussionBoardPosts.html</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/DowdSATActivator.html</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/DowdCotton_ATProductNarrative.html</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/Dowd_INST968-ReflectionAssignment.html</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/Dowd_ATResearchPaper.html</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview6_BrailleNote.html</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview5_PillStation.html</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview4_MedSmart.html</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview3_MedCenter.html</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview2_PillReminder.html</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-968/ATReview1_WYNN.html</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/Module3Paper.html</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/MediciCourseBuilderLessonPlan.html</t>
+  </si>
+  <si>
+    <t>http://samueldowd.com/portfolio/assets/INST-955/Assignment1.html</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1855,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1623,6 +1863,11 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="11" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1945,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" topLeftCell="F64" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,8 +2205,8 @@
     <col min="5" max="5" width="80.5703125" customWidth="1"/>
     <col min="6" max="6" width="47.5703125" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="65.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="78.140625" customWidth="1"/>
+    <col min="9" max="9" width="33.5703125" customWidth="1"/>
     <col min="10" max="10" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3336,7 +3581,7 @@
         <v>199</v>
       </c>
       <c r="I46" s="2" t="str">
-        <f t="shared" ref="I46:I76" si="5">CONCATENATE(B46,".html")</f>
+        <f t="shared" ref="I46:I94" si="5">CONCATENATE(B46,".html")</f>
         <v>Know, Want, Learn 2.html</v>
       </c>
       <c r="J46" s="4" t="s">
@@ -3973,11 +4218,11 @@
         <v>164</v>
       </c>
       <c r="E67" s="2" t="str">
-        <f t="shared" ref="E67:E76" si="6">CONCATENATE("https://view-api.box.com/1/documents/",D67,"/content.zip")</f>
+        <f t="shared" ref="E67:E94" si="6">CONCATENATE("https://view-api.box.com/1/documents/",D67,"/content.zip")</f>
         <v>https://view-api.box.com/1/documents/6bbba965e9ab463ca0d8838db5e8d4b2/content.zip</v>
       </c>
       <c r="F67" s="2" t="str">
-        <f t="shared" ref="F67:F76" si="7">CONCATENATE(B67,".zip")</f>
+        <f t="shared" ref="F67:F94" si="7">CONCATENATE(B67,".zip")</f>
         <v>Assignment 25- Mean Median and Mode copy.zip</v>
       </c>
       <c r="G67" s="6">
@@ -4274,6 +4519,512 @@
       </c>
       <c r="J76" s="4" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="11"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B78" t="s">
+        <v>368</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E78" s="10" t="str">
+        <f>CONCATENATE("https://view-api.box.com/1/documents/",D78,"/content.zip")</f>
+        <v>https://view-api.box.com/1/documents/edb988eba1b0493ea7269aaf019a2ed5/content.zip</v>
+      </c>
+      <c r="F78" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>Module5DiscussionBoard.zip</v>
+      </c>
+      <c r="H78" t="s">
+        <v>410</v>
+      </c>
+      <c r="I78" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>Module5DiscussionBoard.html</v>
+      </c>
+      <c r="J78" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>363</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E79" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>https://view-api.box.com/1/documents/26e816dca10a4d74ae748a599b9abacf/content.zip</v>
+      </c>
+      <c r="F79" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>Module4DiscussionBoard.zip</v>
+      </c>
+      <c r="H79" t="s">
+        <v>411</v>
+      </c>
+      <c r="I79" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>Module4DiscussionBoard.html</v>
+      </c>
+      <c r="J79" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>364</v>
+      </c>
+      <c r="B80" t="s">
+        <v>370</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E80" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>https://view-api.box.com/1/documents/9e86997560fb4a16be70c2799acf5cbd/content.zip</v>
+      </c>
+      <c r="F80" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>Module%203%20Paper.zip</v>
+      </c>
+      <c r="H80" t="s">
+        <v>412</v>
+      </c>
+      <c r="I80" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>Module%203%20Paper.html</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>365</v>
+      </c>
+      <c r="B81" t="s">
+        <v>371</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E81" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>https://view-api.box.com/1/documents/cc28dfcbd07d4143b31c8ffd9b84c99b/content.zip</v>
+      </c>
+      <c r="F81" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>Medici%20Course%20Builder%20Lesson%20Plan.zip</v>
+      </c>
+      <c r="H81" t="s">
+        <v>413</v>
+      </c>
+      <c r="I81" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>Medici%20Course%20Builder%20Lesson%20Plan.html</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E82" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>https://view-api.box.com/1/documents/58022df1a32e43c2a206b992bfe17199/content.zip</v>
+      </c>
+      <c r="F82" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>DiscussionBoardPosts.zip</v>
+      </c>
+      <c r="H82" t="s">
+        <v>414</v>
+      </c>
+      <c r="I82" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>DiscussionBoardPosts.html</v>
+      </c>
+      <c r="J82" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E83" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>https://view-api.box.com/1/documents/e4a0520bdb9e4f098537b1f402b95fd3/content.zip</v>
+      </c>
+      <c r="F83" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>Assignment%201.zip</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I83" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>Assignment%201.html</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="I84" s="10"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E85" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>https://view-api.box.com/1/documents/a138e6b50a46428488063206bfad179e/content.zip</v>
+      </c>
+      <c r="F85" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>DowdSATActivator.zip</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85" t="s">
+        <v>416</v>
+      </c>
+      <c r="I85" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>DowdSATActivator.html</v>
+      </c>
+      <c r="J85" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>381</v>
+      </c>
+      <c r="B86" t="s">
+        <v>391</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E86" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>https://view-api.box.com/1/documents/94c63c1e5abf40639605f9db7503d6dc/content.zip</v>
+      </c>
+      <c r="F86" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>DowdCotton_ATProductNarrative.zip</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="I86" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>DowdCotton_ATProductNarrative.html</v>
+      </c>
+      <c r="J86" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B87" t="s">
+        <v>392</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E87" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>https://view-api.box.com/1/documents/e9a9864e75414e348e5d73034cfd12d4/content.zip</v>
+      </c>
+      <c r="F87" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>Dowd_INST968-ReflectionAssignment.zip</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87" t="s">
+        <v>418</v>
+      </c>
+      <c r="I87" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>Dowd_INST968-ReflectionAssignment.html</v>
+      </c>
+      <c r="J87" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>383</v>
+      </c>
+      <c r="B88" t="s">
+        <v>393</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E88" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>https://view-api.box.com/1/documents/1fa0baa2a62e4e909b6ba50e1e914560/content.zip</v>
+      </c>
+      <c r="F88" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>Dowd_ATResearchPaper.zip</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88" t="s">
+        <v>419</v>
+      </c>
+      <c r="I88" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>Dowd_ATResearchPaper.html</v>
+      </c>
+      <c r="J88" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>384</v>
+      </c>
+      <c r="B89" t="s">
+        <v>394</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E89" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>https://view-api.box.com/1/documents/8270a78ba2974a1baf2a77155e48e5ed/content.zip</v>
+      </c>
+      <c r="F89" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>ATReview6_BrailleNote.zip</v>
+      </c>
+      <c r="G89" s="2">
+        <v>2</v>
+      </c>
+      <c r="H89" t="s">
+        <v>420</v>
+      </c>
+      <c r="I89" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>ATReview6_BrailleNote.html</v>
+      </c>
+      <c r="J89" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>385</v>
+      </c>
+      <c r="B90" t="s">
+        <v>395</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E90" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>https://view-api.box.com/1/documents/7d43e14ba3e543bc838b6168d6dddadc/content.zip</v>
+      </c>
+      <c r="F90" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>ATReview5_PillStation.zip</v>
+      </c>
+      <c r="G90" s="2">
+        <v>2</v>
+      </c>
+      <c r="H90" t="s">
+        <v>421</v>
+      </c>
+      <c r="I90" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>ATReview5_PillStation.html</v>
+      </c>
+      <c r="J90" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E91" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>https://view-api.box.com/1/documents/4dc45830b1c2498eb17b15339630ccc1/content.zip</v>
+      </c>
+      <c r="F91" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>ATReview4_MedSmart.zip</v>
+      </c>
+      <c r="G91" s="2">
+        <v>2</v>
+      </c>
+      <c r="H91" t="s">
+        <v>422</v>
+      </c>
+      <c r="I91" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>ATReview4_MedSmart.html</v>
+      </c>
+      <c r="J91" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E92" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>https://view-api.box.com/1/documents/a42eaeb2ec29493c96ff98537982dd06/content.zip</v>
+      </c>
+      <c r="F92" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>ATReview3_MedCenter.zip</v>
+      </c>
+      <c r="G92" s="2">
+        <v>2</v>
+      </c>
+      <c r="H92" t="s">
+        <v>423</v>
+      </c>
+      <c r="I92" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>ATReview3_MedCenter.html</v>
+      </c>
+      <c r="J92" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E93" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>https://view-api.box.com/1/documents/0f87791eafd442fbac02f6afb064bbc6/content.zip</v>
+      </c>
+      <c r="F93" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>ATReview2_PillReminder.zip</v>
+      </c>
+      <c r="G93" s="2">
+        <v>2</v>
+      </c>
+      <c r="H93" t="s">
+        <v>424</v>
+      </c>
+      <c r="I93" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>ATReview2_PillReminder.html</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>389</v>
+      </c>
+      <c r="B94" t="s">
+        <v>399</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E94" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>https://view-api.box.com/1/documents/cd794d26446a4fd1827b0aa399bc6fd8/content.zip</v>
+      </c>
+      <c r="F94" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>ATReview1_WYNN.zip</v>
+      </c>
+      <c r="G94" s="2">
+        <v>2</v>
+      </c>
+      <c r="H94" t="s">
+        <v>425</v>
+      </c>
+      <c r="I94" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>ATReview1_WYNN.html</v>
+      </c>
+      <c r="J94" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -4286,8 +5037,24 @@
     <hyperlink ref="A18" r:id="rId6"/>
     <hyperlink ref="H15" r:id="rId7"/>
     <hyperlink ref="H37" r:id="rId8"/>
+    <hyperlink ref="A78" r:id="rId9"/>
+    <hyperlink ref="A82" r:id="rId10"/>
+    <hyperlink ref="A91" r:id="rId11" display="ftp://samueldowd@211.ce7.myftpupload.com/samueldowd/portfolio/assets/INST-968/ATReview4_MedSmart.pdf"/>
+    <hyperlink ref="A93" r:id="rId12" display="ftp://samueldowd@211.ce7.myftpupload.com/samueldowd/portfolio/assets/INST-968/ATReview2_PillReminder.pdf"/>
+    <hyperlink ref="A85" r:id="rId13"/>
+    <hyperlink ref="B91" r:id="rId14" display="ftp://samueldowd@211.ce7.myftpupload.com/samueldowd/portfolio/assets/INST-968/ATReview4_MedSmart.pdf"/>
+    <hyperlink ref="B93" r:id="rId15" display="ftp://samueldowd@211.ce7.myftpupload.com/samueldowd/portfolio/assets/INST-968/ATReview2_PillReminder.pdf"/>
+    <hyperlink ref="B85" r:id="rId16" display="http://samueldowd.com/portfolio/assets/INST-968/DowdSATActivator.pdf"/>
+    <hyperlink ref="A87" r:id="rId17"/>
+    <hyperlink ref="A92" r:id="rId18"/>
+    <hyperlink ref="H86" r:id="rId19"/>
+    <hyperlink ref="J68" r:id="rId20"/>
+    <hyperlink ref="J80" r:id="rId21"/>
+    <hyperlink ref="J81" r:id="rId22"/>
+    <hyperlink ref="J83" r:id="rId23"/>
+    <hyperlink ref="J93" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>